--- a/Clustering/Output_Clusters_Asigned_To_Countries/kmedoids_10_af_df_solar.xlsx
+++ b/Clustering/Output_Clusters_Asigned_To_Countries/kmedoids_10_af_df_solar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,9 @@
       <c r="I1" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -469,10 +472,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01219512195121951</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007014028056112225</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -484,9 +487,12 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.004614370468029005</v>
       </c>
       <c r="I2" t="n">
+        <v>0.01840659340659341</v>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -500,24 +506,27 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03008130081300818</v>
+        <v>0.2462574850299392</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004008016032064128</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2467532467532458</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.1555306007860756</v>
       </c>
       <c r="H3" t="n">
-        <v>0.129139072847682</v>
+        <v>0.002636783124588002</v>
       </c>
       <c r="I3" t="n">
+        <v>0.02499999999999998</v>
+      </c>
+      <c r="J3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -528,28 +537,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.05585831062670298</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.0915492957746479</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.1081632653061223</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06730769230769232</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1107011070110702</v>
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -559,27 +571,30 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001050420168067227</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08048780487804891</v>
+        <v>0.01796407185628743</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07515030060120245</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1412337662337661</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.05277933745087039</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03973509933774837</v>
+        <v>0.04878048780487806</v>
       </c>
       <c r="I5" t="n">
+        <v>0.05302197802197791</v>
+      </c>
+      <c r="J5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -593,10 +608,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02601626016260166</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.006012024048096192</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -608,9 +623,12 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.003955174686882004</v>
       </c>
       <c r="I6" t="n">
+        <v>0.02829670329670327</v>
+      </c>
+      <c r="J6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -621,7 +639,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.008403361344537815</v>
+        <v>0.1539509536784742</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -630,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1133428981348637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -643,6 +661,9 @@
       </c>
       <c r="I7" t="n">
         <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01456310679611651</v>
       </c>
     </row>
     <row r="8">
@@ -655,24 +676,27 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1008130081300817</v>
+        <v>0.2425149700598794</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02404809619238477</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1850649350649346</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.07804604154969133</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4288079470198689</v>
+        <v>0.01582069874752802</v>
       </c>
       <c r="I8" t="n">
+        <v>0.06071428571428557</v>
+      </c>
+      <c r="J8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -683,16 +707,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1880252100840333</v>
+        <v>0.01362397820163487</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01002004008016032</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01004304160688666</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -701,10 +725,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.01450230718523402</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.2168284789644004</v>
       </c>
     </row>
     <row r="10">
@@ -714,28 +741,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.1103542234332427</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.07746478873239437</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1119081779053085</v>
+        <v>0.120408163265306</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08653846153846154</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1125461254612547</v>
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -745,13 +775,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.002100840336134454</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02404809619238477</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -763,10 +793,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.01582069874752802</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.001618122977346278</v>
       </c>
     </row>
     <row r="12">
@@ -776,16 +809,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03991596638655465</v>
+        <v>0.01771117166212533</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01503006012024048</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02008608321377331</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -794,10 +827,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.01252471984179301</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.02831715210355989</v>
       </c>
     </row>
     <row r="13">
@@ -810,10 +846,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01829268292682927</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01503006012024048</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -825,9 +861,12 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.009887936717205011</v>
       </c>
       <c r="I13" t="n">
+        <v>0.01236263736263737</v>
+      </c>
+      <c r="J13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -841,24 +880,27 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02032520325203253</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.003006012024048096</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05681818181818183</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.02189781021897811</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.001977587343441002</v>
       </c>
       <c r="I14" t="n">
+        <v>0.01263736263736265</v>
+      </c>
+      <c r="J14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -892,6 +934,9 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -900,16 +945,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.247899159663865</v>
+        <v>0.1294277929155316</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03292682926829273</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3116232464929862</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1362984218077475</v>
+        <v>0.02244897959183674</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -918,10 +963,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.2096242584047469</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02029520295202952</v>
+        <v>0.02252747252747252</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.1844660194174753</v>
       </c>
     </row>
     <row r="17">
@@ -934,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0386178861788618</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -952,6 +1000,9 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
+        <v>0.02747252747252745</v>
+      </c>
+      <c r="J17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -962,7 +1013,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01050420168067227</v>
+        <v>0.008174386920980926</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -971,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01147776183644189</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -984,6 +1035,9 @@
       </c>
       <c r="I18" t="n">
         <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.009708737864077673</v>
       </c>
     </row>
     <row r="19">
@@ -996,10 +1050,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01138211382113821</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0430861723446894</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1011,9 +1065,12 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.027686222808174</v>
       </c>
       <c r="I19" t="n">
+        <v>0.007967032967032965</v>
+      </c>
+      <c r="J19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1027,10 +1084,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1825203252032515</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01202404809619238</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1042,9 +1099,12 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.007251153592617008</v>
       </c>
       <c r="I20" t="n">
+        <v>0.1236263736263733</v>
+      </c>
+      <c r="J20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1055,28 +1115,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.002100840336134454</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1707317073170729</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08917835671342692</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.001623376623376623</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.003368893879842785</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.0586684245220831</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.1140109890109887</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.001618122977346278</v>
       </c>
     </row>
     <row r="22">
@@ -1109,6 +1172,9 @@
       <c r="I22" t="n">
         <v>0</v>
       </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1120,24 +1186,27 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1630081300813007</v>
+        <v>0.1796407185628741</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0400801603206413</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3116883116883112</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.110612015721505</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3791390728476832</v>
+        <v>0.02636783124588</v>
       </c>
       <c r="I23" t="n">
+        <v>0.1057692307692305</v>
+      </c>
+      <c r="J23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1148,7 +1217,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.04495912806539508</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1157,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.04878048780487804</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1170,6 +1239,9 @@
       </c>
       <c r="I24" t="n">
         <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.0008090614886731392</v>
       </c>
     </row>
     <row r="25">
@@ -1179,13 +1251,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.06827731092436982</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.06012024048096196</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1197,10 +1269,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.04152933421226104</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.05016181229773459</v>
       </c>
     </row>
     <row r="26">
@@ -1210,7 +1285,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.001050420168067227</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1232,6 +1307,9 @@
       </c>
       <c r="I26" t="n">
         <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.0008090614886731392</v>
       </c>
     </row>
     <row r="27">
@@ -1241,16 +1319,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02626050420168067</v>
+        <v>0.0217983651226158</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01302605210420841</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02295552367288379</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1259,10 +1337,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.00922874093605801</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.01941747572815535</v>
       </c>
     </row>
     <row r="28">
@@ -1275,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.03414634146341467</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02905811623246494</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1290,9 +1371,12 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.01911667765326301</v>
       </c>
       <c r="I28" t="n">
+        <v>0.02307692307692307</v>
+      </c>
+      <c r="J28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1306,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.002439024390243902</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0581162324649299</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1321,9 +1405,12 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.03823335530652602</v>
       </c>
       <c r="I29" t="n">
+        <v>0.001648351648351648</v>
+      </c>
+      <c r="J29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1334,16 +1421,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.001362397820163488</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07915831663326658</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.001434720229555237</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1352,10 +1439,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.05207646671061308</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.02265372168284791</v>
       </c>
     </row>
     <row r="31">
@@ -1365,7 +1455,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.09033613445378151</v>
+        <v>0.0326975476839237</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1374,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.03873744619799139</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1387,6 +1477,9 @@
       </c>
       <c r="I31" t="n">
         <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.07200647249190935</v>
       </c>
     </row>
     <row r="32">
@@ -1396,28 +1489,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.07457983193277316</v>
+        <v>0.1444141689373299</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.8239436619718301</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1621233859397417</v>
+        <v>0.5755102040816362</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.8666666666666666</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8461538461538454</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5977859778597743</v>
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.06310679611650477</v>
       </c>
     </row>
     <row r="33">
@@ -1427,16 +1523,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1533613445378149</v>
+        <v>0.1934604904632151</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.00501002004008016</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2109038737446198</v>
+        <v>0.1734693877551018</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1445,10 +1541,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.003295978905735003</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1586715867158673</v>
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.1221682847896442</v>
       </c>
     </row>
     <row r="34">
@@ -1461,10 +1560,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01707317073170731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1476,9 +1575,12 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.0006591957811470006</v>
       </c>
       <c r="I34" t="n">
+        <v>0.01153846153846155</v>
+      </c>
+      <c r="J34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1489,7 +1591,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.05672268907563033</v>
+        <v>0.009536784741144413</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1498,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01147776183644189</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -1507,10 +1609,13 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.001318391562294001</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.04288025889967636</v>
       </c>
     </row>
   </sheetData>
